--- a/Excel025-div-rank.xlsx
+++ b/Excel025-div-rank.xlsx
@@ -497,182 +497,182 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="C2" t="n">
-        <v>7.9</v>
+        <v>7.64</v>
       </c>
       <c r="D2" t="n">
-        <v>474000</v>
+        <v>573000</v>
       </c>
       <c r="E2" t="n">
-        <v>6.75</v>
+        <v>6.9</v>
       </c>
       <c r="F2" t="n">
-        <v>405000</v>
+        <v>517500</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>9.92</v>
+        <v>10.43</v>
       </c>
       <c r="I2" t="n">
-        <v>11.6</v>
+        <v>11.55</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>46998</v>
+        <v>59760</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SENA</t>
+          <t>DIF</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105000</v>
+        <v>35000</v>
       </c>
       <c r="C3" t="n">
-        <v>4.48</v>
+        <v>13.9</v>
       </c>
       <c r="D3" t="n">
-        <v>470400</v>
+        <v>486500</v>
       </c>
       <c r="E3" t="n">
-        <v>2.18</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>228900</v>
+        <v>281750</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>5.23</v>
+        <v>6.39</v>
       </c>
       <c r="I3" t="n">
-        <v>10.74</v>
+        <v>11.04</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>24591</v>
+        <v>31108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DIF</t>
+          <t>SENA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35000</v>
+        <v>105000</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9</v>
+        <v>4.48</v>
       </c>
       <c r="D4" t="n">
-        <v>486500</v>
+        <v>470400</v>
       </c>
       <c r="E4" t="n">
-        <v>8.4</v>
+        <v>2.24</v>
       </c>
       <c r="F4" t="n">
-        <v>294000</v>
+        <v>235200</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>6.42</v>
+        <v>5.23</v>
       </c>
       <c r="I4" t="n">
-        <v>10.63</v>
+        <v>10.46</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>31255</v>
+        <v>24591</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WHAIR</t>
+          <t>MCS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50000</v>
+        <v>81000</v>
       </c>
       <c r="C5" t="n">
-        <v>8.699999999999999</v>
+        <v>14.8</v>
       </c>
       <c r="D5" t="n">
-        <v>435000</v>
+        <v>1198800</v>
       </c>
       <c r="E5" t="n">
-        <v>6.45</v>
+        <v>7.25</v>
       </c>
       <c r="F5" t="n">
-        <v>322500</v>
+        <v>587250</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>7.29</v>
+        <v>4.73</v>
       </c>
       <c r="I5" t="n">
-        <v>9.83</v>
+        <v>9.66</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>31710</v>
+        <v>56700</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MCS</t>
+          <t>WHAIR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="C6" t="n">
-        <v>15.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>1155000</v>
+        <v>435000</v>
       </c>
       <c r="E6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>465000</v>
+        <v>300000</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.38</v>
+        <v>6.39</v>
       </c>
       <c r="I6" t="n">
-        <v>8.390000000000001</v>
+        <v>9.26</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>39000</v>
+        <v>27775</v>
       </c>
     </row>
     <row r="7">
@@ -691,10 +691,10 @@
         <v>136250</v>
       </c>
       <c r="E7" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="F7" t="n">
-        <v>131250</v>
+        <v>133750</v>
       </c>
       <c r="G7" t="n">
         <v>9</v>
@@ -703,7 +703,7 @@
         <v>7.89</v>
       </c>
       <c r="I7" t="n">
-        <v>8.19</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="J7" t="n">
         <v>6</v>
@@ -715,38 +715,38 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WHART</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="C8" t="n">
-        <v>12.3</v>
+        <v>7.45</v>
       </c>
       <c r="D8" t="n">
-        <v>246000</v>
+        <v>201150</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>4.96</v>
       </c>
       <c r="F8" t="n">
-        <v>200000</v>
+        <v>133920</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>5.75</v>
+        <v>4.83</v>
       </c>
       <c r="I8" t="n">
-        <v>7.07</v>
+        <v>7.26</v>
       </c>
       <c r="J8" t="n">
         <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>14150</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="9">
@@ -765,99 +765,99 @@
         <v>150000</v>
       </c>
       <c r="E9" t="n">
-        <v>6.3</v>
+        <v>6.35</v>
       </c>
       <c r="F9" t="n">
-        <v>126000</v>
+        <v>127000</v>
       </c>
       <c r="G9" t="n">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>5.91</v>
+        <v>6.03</v>
       </c>
       <c r="I9" t="n">
-        <v>7.03</v>
+        <v>7.12</v>
       </c>
       <c r="J9" t="n">
         <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>8864</v>
+        <v>9044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CPNREIT</t>
+          <t>WHART</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55000</v>
+        <v>20000</v>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>12.3</v>
       </c>
       <c r="D10" t="n">
-        <v>990000</v>
+        <v>246000</v>
       </c>
       <c r="E10" t="n">
-        <v>12.1</v>
+        <v>10.3</v>
       </c>
       <c r="F10" t="n">
-        <v>665500</v>
+        <v>206000</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.67</v>
+        <v>5.31</v>
       </c>
       <c r="I10" t="n">
-        <v>6.94</v>
+        <v>6.34</v>
       </c>
       <c r="J10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>46205.5</v>
+        <v>13062</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>CPNREIT</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27000</v>
+        <v>55000</v>
       </c>
       <c r="C11" t="n">
-        <v>7.45</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>201150</v>
+        <v>990000</v>
       </c>
       <c r="E11" t="n">
-        <v>4.9</v>
+        <v>12.3</v>
       </c>
       <c r="F11" t="n">
-        <v>132300</v>
+        <v>676500</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.56</v>
+        <v>3.79</v>
       </c>
       <c r="I11" t="n">
-        <v>6.94</v>
+        <v>5.54</v>
       </c>
       <c r="J11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>9180</v>
+        <v>37499</v>
       </c>
     </row>
   </sheetData>

--- a/Excel025-div-rank.xlsx
+++ b/Excel025-div-rank.xlsx
@@ -506,25 +506,25 @@
         <v>573000</v>
       </c>
       <c r="E2" t="n">
-        <v>6.9</v>
+        <v>6.55</v>
       </c>
       <c r="F2" t="n">
-        <v>517500</v>
+        <v>491250</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>10.43</v>
+        <v>10.46</v>
       </c>
       <c r="I2" t="n">
-        <v>11.55</v>
+        <v>12.2</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>59760</v>
+        <v>59917.5</v>
       </c>
     </row>
     <row r="3">
@@ -534,145 +534,145 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="C3" t="n">
-        <v>13.9</v>
+        <v>13.1</v>
       </c>
       <c r="D3" t="n">
-        <v>486500</v>
+        <v>524000</v>
       </c>
       <c r="E3" t="n">
-        <v>8.050000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="F3" t="n">
-        <v>281750</v>
+        <v>326000</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>6.39</v>
+        <v>6.78</v>
       </c>
       <c r="I3" t="n">
-        <v>11.04</v>
+        <v>10.91</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>31108</v>
+        <v>35552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SENA</t>
+          <t>WHAIR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105000</v>
+        <v>60000</v>
       </c>
       <c r="C4" t="n">
-        <v>4.48</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>470400</v>
+        <v>483000</v>
       </c>
       <c r="E4" t="n">
-        <v>2.24</v>
+        <v>5.45</v>
       </c>
       <c r="F4" t="n">
-        <v>235200</v>
+        <v>327000</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>5.23</v>
+        <v>6.84</v>
       </c>
       <c r="I4" t="n">
-        <v>10.46</v>
+        <v>10.11</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>24591</v>
+        <v>33048</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MCS</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81000</v>
+        <v>32000</v>
       </c>
       <c r="C5" t="n">
-        <v>14.8</v>
+        <v>6.9</v>
       </c>
       <c r="D5" t="n">
-        <v>1198800</v>
+        <v>220800</v>
       </c>
       <c r="E5" t="n">
-        <v>7.25</v>
+        <v>4.24</v>
       </c>
       <c r="F5" t="n">
-        <v>587250</v>
+        <v>135680</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>4.73</v>
+        <v>5.22</v>
       </c>
       <c r="I5" t="n">
-        <v>9.66</v>
+        <v>8.49</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>56700</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WHAIR</t>
+          <t>MCS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50000</v>
+        <v>81000</v>
       </c>
       <c r="C6" t="n">
-        <v>8.699999999999999</v>
+        <v>14.8</v>
       </c>
       <c r="D6" t="n">
-        <v>435000</v>
+        <v>1198800</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>8.35</v>
       </c>
       <c r="F6" t="n">
-        <v>300000</v>
+        <v>676350</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>6.39</v>
+        <v>4.73</v>
       </c>
       <c r="I6" t="n">
-        <v>9.26</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>27775</v>
+        <v>56700</v>
       </c>
     </row>
     <row r="7">
@@ -691,136 +691,136 @@
         <v>136250</v>
       </c>
       <c r="E7" t="n">
-        <v>10.7</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>133750</v>
+        <v>119375</v>
       </c>
       <c r="G7" t="n">
         <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>7.89</v>
+        <v>7.23</v>
       </c>
       <c r="I7" t="n">
-        <v>8.039999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="J7" t="n">
         <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>10750</v>
+        <v>9853.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>TFFIF</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="C8" t="n">
-        <v>7.45</v>
+        <v>7.5</v>
       </c>
       <c r="D8" t="n">
-        <v>201150</v>
+        <v>150000</v>
       </c>
       <c r="E8" t="n">
-        <v>4.96</v>
+        <v>5.9</v>
       </c>
       <c r="F8" t="n">
-        <v>133920</v>
+        <v>118000</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>4.83</v>
+        <v>6.13</v>
       </c>
       <c r="I8" t="n">
-        <v>7.26</v>
+        <v>7.79</v>
       </c>
       <c r="J8" t="n">
         <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>9720</v>
+        <v>9192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TFFIF</t>
+          <t>WHART</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="C9" t="n">
-        <v>7.5</v>
+        <v>11.6</v>
       </c>
       <c r="D9" t="n">
-        <v>150000</v>
+        <v>290000</v>
       </c>
       <c r="E9" t="n">
-        <v>6.35</v>
+        <v>9.35</v>
       </c>
       <c r="F9" t="n">
-        <v>127000</v>
+        <v>233750</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>6.03</v>
+        <v>6.15</v>
       </c>
       <c r="I9" t="n">
-        <v>7.12</v>
+        <v>7.63</v>
       </c>
       <c r="J9" t="n">
         <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>9044</v>
+        <v>17832.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WHART</t>
+          <t>SENA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20000</v>
+        <v>105000</v>
       </c>
       <c r="C10" t="n">
-        <v>12.3</v>
+        <v>4.48</v>
       </c>
       <c r="D10" t="n">
-        <v>246000</v>
+        <v>470400</v>
       </c>
       <c r="E10" t="n">
-        <v>10.3</v>
+        <v>1.66</v>
       </c>
       <c r="F10" t="n">
-        <v>206000</v>
+        <v>174300</v>
       </c>
       <c r="G10" t="n">
         <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>5.31</v>
+        <v>2.48</v>
       </c>
       <c r="I10" t="n">
-        <v>6.34</v>
+        <v>6.7</v>
       </c>
       <c r="J10" t="n">
         <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>13062</v>
+        <v>11676</v>
       </c>
     </row>
     <row r="11">
@@ -839,25 +839,25 @@
         <v>990000</v>
       </c>
       <c r="E11" t="n">
-        <v>12.3</v>
+        <v>11.5</v>
       </c>
       <c r="F11" t="n">
-        <v>676500</v>
+        <v>632500</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.79</v>
+        <v>3.17</v>
       </c>
       <c r="I11" t="n">
-        <v>5.54</v>
+        <v>4.96</v>
       </c>
       <c r="J11" t="n">
         <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>37499</v>
+        <v>31377.5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel025-div-rank.xlsx
+++ b/Excel025-div-rank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,34 +497,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75000</v>
+        <v>69000</v>
       </c>
       <c r="C2" t="n">
-        <v>7.64</v>
+        <v>7.75</v>
       </c>
       <c r="D2" t="n">
-        <v>573000</v>
+        <v>534750</v>
       </c>
       <c r="E2" t="n">
-        <v>6.55</v>
+        <v>6.65</v>
       </c>
       <c r="F2" t="n">
-        <v>491250</v>
+        <v>458850</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>10.46</v>
+        <v>10.31</v>
       </c>
       <c r="I2" t="n">
-        <v>12.2</v>
+        <v>12.01</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>59917.5</v>
+        <v>55124.1</v>
       </c>
     </row>
     <row r="3">
@@ -543,19 +543,19 @@
         <v>524000</v>
       </c>
       <c r="E3" t="n">
-        <v>8.15</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>326000</v>
+        <v>338000</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>6.78</v>
       </c>
       <c r="I3" t="n">
-        <v>10.91</v>
+        <v>10.52</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -571,71 +571,71 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="C4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>483000</v>
+        <v>435000</v>
       </c>
       <c r="E4" t="n">
-        <v>5.45</v>
+        <v>5.5</v>
       </c>
       <c r="F4" t="n">
-        <v>327000</v>
+        <v>275000</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>6.84</v>
+        <v>6.28</v>
       </c>
       <c r="I4" t="n">
-        <v>10.11</v>
+        <v>9.93</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>33048</v>
+        <v>27305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>AIMIRT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="C5" t="n">
-        <v>6.9</v>
+        <v>10.75</v>
       </c>
       <c r="D5" t="n">
-        <v>220800</v>
+        <v>161250</v>
       </c>
       <c r="E5" t="n">
-        <v>4.24</v>
+        <v>9.9</v>
       </c>
       <c r="F5" t="n">
-        <v>135680</v>
+        <v>148500</v>
       </c>
       <c r="G5" t="n">
         <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>5.22</v>
+        <v>7.91</v>
       </c>
       <c r="I5" t="n">
-        <v>8.49</v>
+        <v>8.59</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>11520</v>
+        <v>12750</v>
       </c>
     </row>
     <row r="6">
@@ -654,10 +654,10 @@
         <v>1198800</v>
       </c>
       <c r="E6" t="n">
-        <v>8.35</v>
+        <v>8.65</v>
       </c>
       <c r="F6" t="n">
-        <v>676350</v>
+        <v>700650</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>4.73</v>
       </c>
       <c r="I6" t="n">
-        <v>8.380000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
@@ -678,38 +678,38 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AIMIRT</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12500</v>
+        <v>27000</v>
       </c>
       <c r="C7" t="n">
-        <v>10.9</v>
+        <v>7.45</v>
       </c>
       <c r="D7" t="n">
-        <v>136250</v>
+        <v>201150</v>
       </c>
       <c r="E7" t="n">
-        <v>9.550000000000001</v>
+        <v>4.58</v>
       </c>
       <c r="F7" t="n">
-        <v>119375</v>
+        <v>123660</v>
       </c>
       <c r="G7" t="n">
         <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>7.23</v>
+        <v>4.83</v>
       </c>
       <c r="I7" t="n">
-        <v>8.25</v>
+        <v>7.86</v>
       </c>
       <c r="J7" t="n">
         <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>9853.75</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="8">
@@ -722,25 +722,25 @@
         <v>20000</v>
       </c>
       <c r="C8" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="D8" t="n">
-        <v>150000</v>
+        <v>144000</v>
       </c>
       <c r="E8" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="F8" t="n">
-        <v>118000</v>
+        <v>121000</v>
       </c>
       <c r="G8" t="n">
         <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>6.13</v>
+        <v>6.38</v>
       </c>
       <c r="I8" t="n">
-        <v>7.79</v>
+        <v>7.6</v>
       </c>
       <c r="J8" t="n">
         <v>7</v>
@@ -765,98 +765,135 @@
         <v>290000</v>
       </c>
       <c r="E9" t="n">
-        <v>9.35</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>233750</v>
+        <v>232500</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>6.15</v>
+        <v>5.97</v>
       </c>
       <c r="I9" t="n">
-        <v>7.63</v>
+        <v>7.44</v>
       </c>
       <c r="J9" t="n">
         <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>17832.5</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SENA</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105000</v>
+        <v>2500</v>
       </c>
       <c r="C10" t="n">
-        <v>4.48</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>470400</v>
+        <v>80000</v>
       </c>
       <c r="E10" t="n">
-        <v>1.66</v>
+        <v>32</v>
       </c>
       <c r="F10" t="n">
-        <v>174300</v>
+        <v>80000</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>2.48</v>
+        <v>6.56</v>
       </c>
       <c r="I10" t="n">
-        <v>6.7</v>
+        <v>6.56</v>
       </c>
       <c r="J10" t="n">
         <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>11676</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CPNREIT</t>
+          <t>SENA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55000</v>
+        <v>105000</v>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>4.48</v>
       </c>
       <c r="D11" t="n">
-        <v>990000</v>
+        <v>470400</v>
       </c>
       <c r="E11" t="n">
-        <v>11.5</v>
+        <v>1.78</v>
       </c>
       <c r="F11" t="n">
-        <v>632500</v>
+        <v>186900</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.17</v>
+        <v>2.48</v>
       </c>
       <c r="I11" t="n">
-        <v>4.96</v>
+        <v>6.25</v>
       </c>
       <c r="J11" t="n">
         <v>10</v>
       </c>
       <c r="K11" t="n">
+        <v>11676</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CPNREIT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>55000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>18</v>
+      </c>
+      <c r="D12" t="n">
+        <v>990000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>632500</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11</v>
+      </c>
+      <c r="K12" t="n">
         <v>31377.5</v>
       </c>
     </row>

--- a/Excel025-div-rank.xlsx
+++ b/Excel025-div-rank.xlsx
@@ -506,25 +506,25 @@
         <v>534750</v>
       </c>
       <c r="E2" t="n">
-        <v>6.65</v>
+        <v>6.45</v>
       </c>
       <c r="F2" t="n">
-        <v>458850</v>
+        <v>445050</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>10.31</v>
+        <v>10.38</v>
       </c>
       <c r="I2" t="n">
-        <v>12.01</v>
+        <v>12.47</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>55124.1</v>
+        <v>55496.7</v>
       </c>
     </row>
     <row r="3">
@@ -534,34 +534,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="C3" t="n">
-        <v>13.1</v>
+        <v>12.17</v>
       </c>
       <c r="D3" t="n">
-        <v>524000</v>
+        <v>608500</v>
       </c>
       <c r="E3" t="n">
-        <v>8.449999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="F3" t="n">
-        <v>338000</v>
+        <v>420000</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>6.78</v>
+        <v>7.3</v>
       </c>
       <c r="I3" t="n">
-        <v>10.52</v>
+        <v>10.58</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>35552</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="4">
@@ -604,75 +604,75 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AIMIRT</t>
+          <t>MCS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15000</v>
+        <v>81000</v>
       </c>
       <c r="C5" t="n">
-        <v>10.75</v>
+        <v>14.8</v>
       </c>
       <c r="D5" t="n">
-        <v>161250</v>
+        <v>1198800</v>
       </c>
       <c r="E5" t="n">
-        <v>9.9</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>148500</v>
+        <v>692550</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.91</v>
+        <v>5.07</v>
       </c>
       <c r="I5" t="n">
-        <v>8.59</v>
+        <v>8.77</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>12750</v>
+        <v>60750</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MCS</t>
+          <t>AIMIRT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81000</v>
+        <v>17500</v>
       </c>
       <c r="C6" t="n">
-        <v>14.8</v>
+        <v>10.6</v>
       </c>
       <c r="D6" t="n">
-        <v>1198800</v>
+        <v>185500</v>
       </c>
       <c r="E6" t="n">
-        <v>8.65</v>
+        <v>9.9</v>
       </c>
       <c r="F6" t="n">
-        <v>700650</v>
+        <v>173250</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>4.73</v>
+        <v>8.02</v>
       </c>
       <c r="I6" t="n">
-        <v>8.09</v>
+        <v>8.59</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>56700</v>
+        <v>14875</v>
       </c>
     </row>
     <row r="7">
@@ -691,10 +691,10 @@
         <v>201150</v>
       </c>
       <c r="E7" t="n">
-        <v>4.58</v>
+        <v>4.52</v>
       </c>
       <c r="F7" t="n">
-        <v>123660</v>
+        <v>122040</v>
       </c>
       <c r="G7" t="n">
         <v>9</v>
@@ -703,7 +703,7 @@
         <v>4.83</v>
       </c>
       <c r="I7" t="n">
-        <v>7.86</v>
+        <v>7.96</v>
       </c>
       <c r="J7" t="n">
         <v>6</v>
@@ -765,10 +765,10 @@
         <v>290000</v>
       </c>
       <c r="E9" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="F9" t="n">
-        <v>232500</v>
+        <v>235000</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -777,7 +777,7 @@
         <v>5.97</v>
       </c>
       <c r="I9" t="n">
-        <v>7.44</v>
+        <v>7.36</v>
       </c>
       <c r="J9" t="n">
         <v>8</v>
@@ -789,112 +789,112 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>CPNREIT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2500</v>
+        <v>55000</v>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>80000</v>
+        <v>990000</v>
       </c>
       <c r="E10" t="n">
-        <v>32</v>
+        <v>11.5</v>
       </c>
       <c r="F10" t="n">
-        <v>80000</v>
+        <v>632500</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>6.56</v>
+        <v>4.43</v>
       </c>
       <c r="I10" t="n">
-        <v>6.56</v>
+        <v>6.93</v>
       </c>
       <c r="J10" t="n">
         <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>5250</v>
+        <v>43813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SENA</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105000</v>
+        <v>2500</v>
       </c>
       <c r="C11" t="n">
-        <v>4.48</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>470400</v>
+        <v>80000</v>
       </c>
       <c r="E11" t="n">
-        <v>1.78</v>
+        <v>32.25</v>
       </c>
       <c r="F11" t="n">
-        <v>186900</v>
+        <v>80625</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>2.48</v>
+        <v>6.56</v>
       </c>
       <c r="I11" t="n">
-        <v>6.25</v>
+        <v>6.51</v>
       </c>
       <c r="J11" t="n">
         <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>11676</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CPNREIT</t>
+          <t>SENA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55000</v>
+        <v>105000</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>4.48</v>
       </c>
       <c r="D12" t="n">
-        <v>990000</v>
+        <v>470400</v>
       </c>
       <c r="E12" t="n">
-        <v>11.5</v>
+        <v>1.78</v>
       </c>
       <c r="F12" t="n">
-        <v>632500</v>
+        <v>186900</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.17</v>
+        <v>2.48</v>
       </c>
       <c r="I12" t="n">
-        <v>4.96</v>
+        <v>6.25</v>
       </c>
       <c r="J12" t="n">
         <v>11</v>
       </c>
       <c r="K12" t="n">
-        <v>31377.5</v>
+        <v>11676</v>
       </c>
     </row>
   </sheetData>

--- a/Excel025-div-rank.xlsx
+++ b/Excel025-div-rank.xlsx
@@ -506,10 +506,10 @@
         <v>534750</v>
       </c>
       <c r="E2" t="n">
-        <v>6.45</v>
+        <v>6.3</v>
       </c>
       <c r="F2" t="n">
-        <v>445050</v>
+        <v>434700</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -518,7 +518,7 @@
         <v>10.38</v>
       </c>
       <c r="I2" t="n">
-        <v>12.47</v>
+        <v>12.77</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -534,34 +534,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="C3" t="n">
-        <v>12.17</v>
+        <v>12.7</v>
       </c>
       <c r="D3" t="n">
-        <v>608500</v>
+        <v>571500</v>
       </c>
       <c r="E3" t="n">
-        <v>8.4</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>420000</v>
+        <v>384750</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>10.58</v>
+        <v>10.4</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>44440</v>
+        <v>39996</v>
       </c>
     </row>
     <row r="4">
@@ -608,34 +608,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81000</v>
+        <v>75000</v>
       </c>
       <c r="C5" t="n">
-        <v>14.8</v>
+        <v>15.312</v>
       </c>
       <c r="D5" t="n">
-        <v>1198800</v>
+        <v>1148400</v>
       </c>
       <c r="E5" t="n">
-        <v>8.550000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="F5" t="n">
-        <v>692550</v>
+        <v>637500</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.07</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
-        <v>8.77</v>
+        <v>8.82</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>60750</v>
+        <v>56250</v>
       </c>
     </row>
     <row r="6">
@@ -654,10 +654,10 @@
         <v>185500</v>
       </c>
       <c r="E6" t="n">
-        <v>9.9</v>
+        <v>9.75</v>
       </c>
       <c r="F6" t="n">
-        <v>173250</v>
+        <v>170625</v>
       </c>
       <c r="G6" t="n">
         <v>8</v>
@@ -666,7 +666,7 @@
         <v>8.02</v>
       </c>
       <c r="I6" t="n">
-        <v>8.59</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
@@ -691,19 +691,19 @@
         <v>201150</v>
       </c>
       <c r="E7" t="n">
-        <v>4.52</v>
+        <v>4.46</v>
       </c>
       <c r="F7" t="n">
-        <v>122040</v>
+        <v>120420</v>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>4.83</v>
       </c>
       <c r="I7" t="n">
-        <v>7.96</v>
+        <v>8.07</v>
       </c>
       <c r="J7" t="n">
         <v>6</v>
@@ -715,75 +715,75 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TFFIF</t>
+          <t>WHART</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="C8" t="n">
-        <v>7.2</v>
+        <v>11.6</v>
       </c>
       <c r="D8" t="n">
-        <v>144000</v>
+        <v>290000</v>
       </c>
       <c r="E8" t="n">
-        <v>6.05</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>121000</v>
+        <v>225000</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>6.38</v>
+        <v>5.97</v>
       </c>
       <c r="I8" t="n">
-        <v>7.6</v>
+        <v>7.69</v>
       </c>
       <c r="J8" t="n">
         <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>9192</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WHART</t>
+          <t>TFFIF</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="C9" t="n">
-        <v>11.6</v>
+        <v>7.2</v>
       </c>
       <c r="D9" t="n">
-        <v>290000</v>
+        <v>144000</v>
       </c>
       <c r="E9" t="n">
-        <v>9.4</v>
+        <v>5.9</v>
       </c>
       <c r="F9" t="n">
-        <v>235000</v>
+        <v>118000</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>5.97</v>
+        <v>6.29</v>
       </c>
       <c r="I9" t="n">
-        <v>7.36</v>
+        <v>7.68</v>
       </c>
       <c r="J9" t="n">
         <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>17300</v>
+        <v>9064</v>
       </c>
     </row>
     <row r="10">
@@ -802,10 +802,10 @@
         <v>990000</v>
       </c>
       <c r="E10" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="F10" t="n">
-        <v>632500</v>
+        <v>616000</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -814,7 +814,7 @@
         <v>4.43</v>
       </c>
       <c r="I10" t="n">
-        <v>6.93</v>
+        <v>7.11</v>
       </c>
       <c r="J10" t="n">
         <v>9</v>
@@ -830,34 +830,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="D11" t="n">
-        <v>80000</v>
+        <v>157500</v>
       </c>
       <c r="E11" t="n">
-        <v>32.25</v>
+        <v>31.5</v>
       </c>
       <c r="F11" t="n">
-        <v>80625</v>
+        <v>157500</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>6.56</v>
+        <v>6.67</v>
       </c>
       <c r="I11" t="n">
-        <v>6.51</v>
+        <v>6.67</v>
       </c>
       <c r="J11" t="n">
         <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>5250</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="12">
@@ -876,10 +876,10 @@
         <v>470400</v>
       </c>
       <c r="E12" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="F12" t="n">
-        <v>186900</v>
+        <v>197400</v>
       </c>
       <c r="G12" t="n">
         <v>7</v>
@@ -888,7 +888,7 @@
         <v>2.48</v>
       </c>
       <c r="I12" t="n">
-        <v>6.25</v>
+        <v>5.91</v>
       </c>
       <c r="J12" t="n">
         <v>11</v>

--- a/Excel025-div-rank.xlsx
+++ b/Excel025-div-rank.xlsx
@@ -506,10 +506,10 @@
         <v>534750</v>
       </c>
       <c r="E2" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F2" t="n">
-        <v>434700</v>
+        <v>441600</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -518,7 +518,7 @@
         <v>10.38</v>
       </c>
       <c r="I2" t="n">
-        <v>12.77</v>
+        <v>12.57</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>571500</v>
       </c>
       <c r="E3" t="n">
-        <v>8.550000000000001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>384750</v>
+        <v>407250</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
@@ -555,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>10.4</v>
+        <v>9.82</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -580,10 +580,10 @@
         <v>435000</v>
       </c>
       <c r="E4" t="n">
-        <v>5.5</v>
+        <v>5.65</v>
       </c>
       <c r="F4" t="n">
-        <v>275000</v>
+        <v>282500</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -592,7 +592,7 @@
         <v>6.28</v>
       </c>
       <c r="I4" t="n">
-        <v>9.93</v>
+        <v>9.67</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -617,19 +617,19 @@
         <v>1148400</v>
       </c>
       <c r="E5" t="n">
-        <v>8.5</v>
+        <v>8.65</v>
       </c>
       <c r="F5" t="n">
-        <v>637500</v>
+        <v>648750</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>4.9</v>
       </c>
       <c r="I5" t="n">
-        <v>8.82</v>
+        <v>8.67</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -654,10 +654,10 @@
         <v>185500</v>
       </c>
       <c r="E6" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>170625</v>
+        <v>175000</v>
       </c>
       <c r="G6" t="n">
         <v>8</v>
@@ -666,7 +666,7 @@
         <v>8.02</v>
       </c>
       <c r="I6" t="n">
-        <v>8.720000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
@@ -691,19 +691,19 @@
         <v>201150</v>
       </c>
       <c r="E7" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="F7" t="n">
-        <v>120420</v>
+        <v>120960</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
         <v>4.83</v>
       </c>
       <c r="I7" t="n">
-        <v>8.07</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="J7" t="n">
         <v>6</v>
@@ -715,75 +715,75 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WHART</t>
+          <t>TFFIF</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="C8" t="n">
-        <v>11.6</v>
+        <v>7.2</v>
       </c>
       <c r="D8" t="n">
-        <v>290000</v>
+        <v>144000</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="F8" t="n">
-        <v>225000</v>
+        <v>122000</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>5.97</v>
+        <v>6.29</v>
       </c>
       <c r="I8" t="n">
-        <v>7.69</v>
+        <v>7.43</v>
       </c>
       <c r="J8" t="n">
         <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>17300</v>
+        <v>9064</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TFFIF</t>
+          <t>WHART</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="C9" t="n">
-        <v>7.2</v>
+        <v>11.6</v>
       </c>
       <c r="D9" t="n">
-        <v>144000</v>
+        <v>290000</v>
       </c>
       <c r="E9" t="n">
-        <v>5.9</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>118000</v>
+        <v>238750</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>6.29</v>
+        <v>5.97</v>
       </c>
       <c r="I9" t="n">
-        <v>7.68</v>
+        <v>7.25</v>
       </c>
       <c r="J9" t="n">
         <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>9064</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         <v>990000</v>
       </c>
       <c r="E10" t="n">
-        <v>11.2</v>
+        <v>11.8</v>
       </c>
       <c r="F10" t="n">
-        <v>616000</v>
+        <v>649000</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>4.43</v>
       </c>
       <c r="I10" t="n">
-        <v>7.11</v>
+        <v>6.75</v>
       </c>
       <c r="J10" t="n">
         <v>9</v>
@@ -839,10 +839,10 @@
         <v>157500</v>
       </c>
       <c r="E11" t="n">
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="F11" t="n">
-        <v>157500</v>
+        <v>167500</v>
       </c>
       <c r="G11" t="n">
         <v>9</v>
@@ -851,7 +851,7 @@
         <v>6.67</v>
       </c>
       <c r="I11" t="n">
-        <v>6.67</v>
+        <v>6.27</v>
       </c>
       <c r="J11" t="n">
         <v>10</v>
@@ -876,10 +876,10 @@
         <v>470400</v>
       </c>
       <c r="E12" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="F12" t="n">
-        <v>197400</v>
+        <v>203700</v>
       </c>
       <c r="G12" t="n">
         <v>7</v>
@@ -888,7 +888,7 @@
         <v>2.48</v>
       </c>
       <c r="I12" t="n">
-        <v>5.91</v>
+        <v>5.73</v>
       </c>
       <c r="J12" t="n">
         <v>11</v>

--- a/Excel025-div-rank.xlsx
+++ b/Excel025-div-rank.xlsx
@@ -506,10 +506,10 @@
         <v>534750</v>
       </c>
       <c r="E2" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="F2" t="n">
-        <v>441600</v>
+        <v>448500</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -518,7 +518,7 @@
         <v>10.38</v>
       </c>
       <c r="I2" t="n">
-        <v>12.57</v>
+        <v>12.37</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>571500</v>
       </c>
       <c r="E3" t="n">
-        <v>9.050000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="F3" t="n">
-        <v>407250</v>
+        <v>409500</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
@@ -555,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>9.82</v>
+        <v>9.77</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -580,10 +580,10 @@
         <v>435000</v>
       </c>
       <c r="E4" t="n">
-        <v>5.65</v>
+        <v>6.05</v>
       </c>
       <c r="F4" t="n">
-        <v>282500</v>
+        <v>302500</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -592,7 +592,7 @@
         <v>6.28</v>
       </c>
       <c r="I4" t="n">
-        <v>9.67</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -617,19 +617,19 @@
         <v>1148400</v>
       </c>
       <c r="E5" t="n">
-        <v>8.65</v>
+        <v>8.4</v>
       </c>
       <c r="F5" t="n">
-        <v>648750</v>
+        <v>630000</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>4.9</v>
       </c>
       <c r="I5" t="n">
-        <v>8.67</v>
+        <v>8.93</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -641,75 +641,75 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AIMIRT</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17500</v>
+        <v>27000</v>
       </c>
       <c r="C6" t="n">
-        <v>10.6</v>
+        <v>7.45</v>
       </c>
       <c r="D6" t="n">
-        <v>185500</v>
+        <v>201150</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="F6" t="n">
-        <v>175000</v>
+        <v>116100</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>8.02</v>
+        <v>4.83</v>
       </c>
       <c r="I6" t="n">
-        <v>8.5</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>14875</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>AIMIRT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27000</v>
+        <v>17500</v>
       </c>
       <c r="C7" t="n">
-        <v>7.45</v>
+        <v>10.6</v>
       </c>
       <c r="D7" t="n">
-        <v>201150</v>
+        <v>185500</v>
       </c>
       <c r="E7" t="n">
-        <v>4.48</v>
+        <v>10.3</v>
       </c>
       <c r="F7" t="n">
-        <v>120960</v>
+        <v>180250</v>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>4.83</v>
+        <v>8.02</v>
       </c>
       <c r="I7" t="n">
-        <v>8.039999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="J7" t="n">
         <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>9720</v>
+        <v>14875</v>
       </c>
     </row>
     <row r="8">
@@ -728,10 +728,10 @@
         <v>144000</v>
       </c>
       <c r="E8" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="F8" t="n">
-        <v>122000</v>
+        <v>123000</v>
       </c>
       <c r="G8" t="n">
         <v>10</v>
@@ -740,7 +740,7 @@
         <v>6.29</v>
       </c>
       <c r="I8" t="n">
-        <v>7.43</v>
+        <v>7.37</v>
       </c>
       <c r="J8" t="n">
         <v>7</v>
@@ -756,34 +756,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="C9" t="n">
-        <v>11.6</v>
+        <v>12.3</v>
       </c>
       <c r="D9" t="n">
-        <v>290000</v>
+        <v>246000</v>
       </c>
       <c r="E9" t="n">
-        <v>9.550000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>238750</v>
+        <v>194000</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>5.97</v>
+        <v>5.63</v>
       </c>
       <c r="I9" t="n">
-        <v>7.25</v>
+        <v>7.13</v>
       </c>
       <c r="J9" t="n">
         <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>17300</v>
+        <v>13840</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         <v>990000</v>
       </c>
       <c r="E10" t="n">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="F10" t="n">
-        <v>649000</v>
+        <v>627000</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>4.43</v>
       </c>
       <c r="I10" t="n">
-        <v>6.75</v>
+        <v>6.99</v>
       </c>
       <c r="J10" t="n">
         <v>9</v>
@@ -830,34 +830,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="C11" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>157500</v>
+        <v>240000</v>
       </c>
       <c r="E11" t="n">
-        <v>33.5</v>
+        <v>33.25</v>
       </c>
       <c r="F11" t="n">
-        <v>167500</v>
+        <v>249375</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>6.67</v>
+        <v>6.88</v>
       </c>
       <c r="I11" t="n">
-        <v>6.27</v>
+        <v>6.62</v>
       </c>
       <c r="J11" t="n">
         <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="12">
@@ -876,10 +876,10 @@
         <v>470400</v>
       </c>
       <c r="E12" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="F12" t="n">
-        <v>203700</v>
+        <v>204750</v>
       </c>
       <c r="G12" t="n">
         <v>7</v>
@@ -888,7 +888,7 @@
         <v>2.48</v>
       </c>
       <c r="I12" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="J12" t="n">
         <v>11</v>
